--- a/career-food/public/sgs_sample.xlsx
+++ b/career-food/public/sgs_sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -19,25 +19,22 @@
     <t>nickname</t>
   </si>
   <si>
-    <t>referrals</t>
-  </si>
-  <si>
-    <t>bounty</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>w2</t>
-  </si>
-  <si>
-    <t>w3</t>
-  </si>
-  <si>
-    <t>w4</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>bounty_o</t>
+  </si>
+  <si>
+    <t>bounty_c</t>
+  </si>
+  <si>
+    <t>total_bounty</t>
   </si>
   <si>
     <t>Zahin</t>
@@ -55,7 +52,7 @@
     <t>bonbon</t>
   </si>
   <si>
-    <t>HP like the sauce</t>
+    <t>GrandMaster</t>
   </si>
   <si>
     <t>Fifi</t>
@@ -64,7 +61,7 @@
     <t>falcon</t>
   </si>
   <si>
-    <t>Big Saver</t>
+    <t>BigSaver</t>
   </si>
   <si>
     <t>Nikki</t>
@@ -73,32 +70,74 @@
     <t>pohpoh</t>
   </si>
   <si>
+    <t>Influencer</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>yma</t>
+  </si>
+  <si>
+    <t>SalesLady</t>
+  </si>
+  <si>
+    <t>Sulaiman</t>
+  </si>
+  <si>
+    <t>namialus</t>
+  </si>
+  <si>
+    <t>SuperAgent</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>cco</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>daddycool</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>theguy</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>yma</t>
-  </si>
-  <si>
-    <t>Sulaiman</t>
-  </si>
-  <si>
-    <t>namialus</t>
-  </si>
-  <si>
-    <t>SuperAgent</t>
+    <t>Dayang</t>
+  </si>
+  <si>
+    <t>lurvee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -122,14 +161,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -350,209 +400,316 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IFS(D2&gt;=5,D2*700,D2&lt;=2,D2*300,D2&gt;=3,D2*500)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G11" si="1">IFS(E2&gt;=5,E2*1000,E2&lt;=2,E2*500,E2&gt;=3,E2*800)</f>
+        <v>1000</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H11" si="2">SUM(F2:G2)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F11" si="3">IFS(D3&gt;=5,D3*700,D3&lt;=2,D3*300,D3&gt;=3,E3*500)</f>
+        <v>4900</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="2"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="4">
         <v>5.0</v>
       </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D7" si="1">C2*1000</f>
+      <c r="F4" s="5">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="4">
         <v>3.0</v>
       </c>
-      <c r="G2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>6300</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>4200</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="1"/>
-        <v>14000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="E11" s="4">
         <v>3.0</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.0</v>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>
